--- a/6. Funciones-en-Excel-MIN-MO-M-XIMO.PROMEDIO-y-CONTAR.xlsx.xlsx
+++ b/6. Funciones-en-Excel-MIN-MO-M-XIMO.PROMEDIO-y-CONTAR.xlsx.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Miguel Maraby\Video Cursos\Excel 2017\Producción\Excel y Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\Downloads\Materiales-Para-Descargar\Curso_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF863FBD-430F-4D4D-B7CF-A4FCC52C5958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{387765B8-A6D8-4B9F-8E14-1C810584CD88}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{387765B8-A6D8-4B9F-8E14-1C810584CD88}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -111,21 +121,51 @@
       <b/>
       <u/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,28 +173,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="2"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Curso Excel" xfId="2" xr:uid="{C5774B61-F40C-4A38-B6E7-73944B4363E4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -464,427 +582,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACFC325-6757-4813-94EE-2E9E69B2BEB2}">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.3984375" style="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>43101</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>43132</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>43160</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="14">
         <v>43191</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="14">
         <v>43221</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="14">
         <v>43252</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>700</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>700</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>700</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>700</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>700</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>700</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
         <v>4200</v>
       </c>
-      <c r="J5" s="5">
-        <f>H5/$H$15</f>
-        <v>3.9135296310100633E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="I5" s="12">
+        <f>H5/$H$14</f>
+        <v>3.8595846351773572E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4200</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4500</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>6000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>6000</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6:H15" si="0">SUM(B6:G6)</f>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H14" si="0">SUM(B6:G6)</f>
         <v>29700</v>
       </c>
-      <c r="J6" s="5">
-        <f>H6/$H$15</f>
-        <v>0.27674245247856877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I6" s="12">
+        <f>H6/$H$14</f>
+        <v>0.2729277706303988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4300</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4300</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4300</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>4300</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4300</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>4300</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>25800</v>
       </c>
-      <c r="J7" s="5">
-        <f>H7/$H$15</f>
-        <v>0.24040253447633247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="I7" s="12">
+        <f>H7/$H$14</f>
+        <v>0.23708877044660909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>250</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>220</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>250</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="J8" s="5">
-        <f>H8/$H$15</f>
-        <v>1.2299664554603056E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="I8" s="12">
+        <f>H8/$H$14</f>
+        <v>1.2130123139128837E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>15600</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" ref="J9:J13" si="1">H9/$H$15</f>
-        <v>0.1453596720089452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="12">
+        <f t="shared" ref="I9:I13" si="1">H9/$H$14</f>
+        <v>0.14335600073515897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="I10" s="12">
+        <f>H10/$H$14</f>
+        <v>6.8921154199595658E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="J10" s="5">
-        <f>H10/$H$15</f>
-        <v>5.590756615728662E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
-        <v>5.590756615728662E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>5.5136923359676529E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1500</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1300</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="J12" s="5">
-        <f>H12/$H$15</f>
-        <v>9.0383898620946701E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="I12" s="12">
+        <f>H12/$H$14</f>
+        <v>8.9138026098143724E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1500</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1500</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1500</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1500</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1500</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1500</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="I13" s="12">
         <f t="shared" si="1"/>
-        <v>8.386134923592993E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>8.27053850395148E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B14" s="7">
         <f>SUM(B5:B13)</f>
         <v>17400</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:G15" si="2">SUM(C5:C13)</f>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:G14" si="2">SUM(C5:C13)</f>
         <v>16500</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D14" s="7">
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E14" s="7">
         <f t="shared" si="2"/>
         <v>20250</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>15920</v>
-      </c>
-      <c r="G15" s="4">
+        <v>17420</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>19750</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>107320</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>108820</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B16" s="3">
         <f>MIN(B5:B13)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B17" s="3">
         <f>MAX(B5:G13)</f>
         <v>6000</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B18" s="3">
         <f>AVERAGE(B5:B13)</f>
         <v>1933.3333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B19" s="1">
         <f>COUNT(B5:B13)</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5:G13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/6. Funciones-en-Excel-MIN-MO-M-XIMO.PROMEDIO-y-CONTAR.xlsx.xlsx
+++ b/6. Funciones-en-Excel-MIN-MO-M-XIMO.PROMEDIO-y-CONTAR.xlsx.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\Downloads\Materiales-Para-Descargar\Curso_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF863FBD-430F-4D4D-B7CF-A4FCC52C5958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB5798-D149-462B-BB9E-8C96F458D4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{387765B8-A6D8-4B9F-8E14-1C810584CD88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Presupuesto1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico informativo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -223,9 +224,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -235,13 +233,16 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="2"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Curso Excel" xfId="2" xr:uid="{C5774B61-F40C-4A38-B6E7-73944B4363E4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -262,16 +263,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -283,6 +274,3816 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/list1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d5" qsCatId="3D" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Familia</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C3C23DB4-165A-4349-A9AA-0CDA05F9025A}" type="parTrans" cxnId="{63BC9F9E-3BE3-4D79-BF7C-B131A8260368}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2332F18A-C584-4CB9-A9E8-0D1A39B8048A}" type="sibTrans" cxnId="{63BC9F9E-3BE3-4D79-BF7C-B131A8260368}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{28E1F358-8503-4739-8A79-ED7F8DDB0679}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Junio</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46B00DB1-D1E0-4075-8239-BD41981F9F30}" type="parTrans" cxnId="{DB1A6BAF-5E40-491D-BB68-65005C55399A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BFE9211A-4A14-4439-8B70-28B9566F1C9B}" type="sibTrans" cxnId="{DB1A6BAF-5E40-491D-BB68-65005C55399A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92DF18F5-4CA0-4807-880D-B568308E8ACF}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Julio</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{06E56736-7C38-4CA2-BF42-2CC6F828A816}" type="parTrans" cxnId="{D7A61569-5F4F-46E2-B89A-2A2BF4129BD8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17A6849B-E8FE-4C4B-B2EF-95E6188628E3}" type="sibTrans" cxnId="{D7A61569-5F4F-46E2-B89A-2A2BF4129BD8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Empresas</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B373B63E-259A-4168-8148-6DAD083D915D}" type="parTrans" cxnId="{54BE5A53-5B3E-4D02-978D-60FCB493383A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F4822491-B94D-4A45-A309-D16A366CC8CC}" type="sibTrans" cxnId="{54BE5A53-5B3E-4D02-978D-60FCB493383A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{89968F49-A678-44D8-A741-CCE3004F1CB0}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Abril</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{628B83B0-C83B-488D-BE2C-E84C62480FB3}" type="parTrans" cxnId="{761C7EB7-0404-4B38-9D9E-B0524A0415CD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2615C6CB-DB60-439D-9C79-DD80FC34D327}" type="sibTrans" cxnId="{761C7EB7-0404-4B38-9D9E-B0524A0415CD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9B821602-82D1-4EED-96D8-077A3BCF7AA4}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Diciembre</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2BFD253A-BA9A-4CB4-9351-88B4B0AE9435}" type="parTrans" cxnId="{359E0D01-11C9-487E-8B80-DAA9336C3FED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{69949592-1C29-45C2-B11F-A67C2B3E1F37}" type="sibTrans" cxnId="{359E0D01-11C9-487E-8B80-DAA9336C3FED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Fiestas Infantiles</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2729C385-34EE-48C0-93B5-24FC38AACAD4}" type="parTrans" cxnId="{841FF9AD-1305-443F-8EAF-4DD7F088FBC3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7378DF53-49ED-4F8C-B206-306A7A9AF7EA}" type="sibTrans" cxnId="{841FF9AD-1305-443F-8EAF-4DD7F088FBC3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D8F0967D-EEAC-4591-A999-7A2C9CE2272E}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Enero</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1FC37AC3-2223-45FD-8A43-0494821D6EC2}" type="parTrans" cxnId="{E204830B-95A6-4A8A-864D-8D51CEFAAD64}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BF713DB-EE8B-42E8-8553-09AE31447A42}" type="sibTrans" cxnId="{E204830B-95A6-4A8A-864D-8D51CEFAAD64}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED257456-A073-410B-B6F4-6F2C7CF70188}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Marzo</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4522D219-E2F1-43F9-87AB-1EFB1AFD5DA6}" type="parTrans" cxnId="{DB6AE3CC-BFB6-46DF-8535-B1C0828310C0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1DF35C7E-09E5-4CDA-A348-F0C6DEC9C599}" type="sibTrans" cxnId="{DB6AE3CC-BFB6-46DF-8535-B1C0828310C0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BA3BE682-957D-448E-9CA9-55C875611D47}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Octubre</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B3DC55D-5B95-495C-A8F7-EC5DCD46BDA1}" type="parTrans" cxnId="{BEFC467F-6EAF-44FC-B68E-E72D32FAECC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6D45AC31-CC92-49C6-89E8-E6F79AD5A21E}" type="sibTrans" cxnId="{BEFC467F-6EAF-44FC-B68E-E72D32FAECC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Colegios</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9887E77E-9885-45BA-B56D-41BEF4476E8B}" type="parTrans" cxnId="{0E73B5B5-5DAB-4BE2-AF33-6E4AAE99E8BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F531F6E2-9871-4370-8B4D-070DFF946A8F}" type="sibTrans" cxnId="{0E73B5B5-5DAB-4BE2-AF33-6E4AAE99E8BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B3D02B3D-C776-42B4-81CD-38E75222EE43}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Marzo</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27E13887-7738-41D7-8B15-7FA1658DBBDD}" type="parTrans" cxnId="{DA37FE96-83B5-4712-92DA-29ABF14FE9F5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6FBB87F1-C54D-443D-9F16-831A1B232899}" type="sibTrans" cxnId="{DA37FE96-83B5-4712-92DA-29ABF14FE9F5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2BAE9395-E215-4A3D-8E8A-0C33A6E76673}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE"/>
+            <a:t>Abril</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BA13112-A37B-4524-BA8C-0A7DDA4FF725}" type="parTrans" cxnId="{D61E9EB1-EECF-4DE3-980D-54D49A2759A4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{191D6E86-6EC4-4F72-B44D-B7B9D5BB7887}" type="sibTrans" cxnId="{D61E9EB1-EECF-4DE3-980D-54D49A2759A4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" type="pres">
+      <dgm:prSet presAssocID="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" presName="linear" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{45747FDE-CFBF-4BC1-AE15-2C572365EC68}" type="pres">
+      <dgm:prSet presAssocID="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" presName="parentLin" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D5EFB2E-D9EA-4398-83ED-5E27BB2AE8F6}" type="pres">
+      <dgm:prSet presAssocID="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" presName="parentLeftMargin" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8ACF2192-3E7C-416E-B94E-0E765FD18E52}" type="pres">
+      <dgm:prSet presAssocID="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" presName="parentText" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{687AA6E6-DABF-44E8-AF59-507D32EB5935}" type="pres">
+      <dgm:prSet presAssocID="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" presName="negativeSpace" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{272DFBB0-BEF8-473E-B443-7AAF458B7F54}" type="pres">
+      <dgm:prSet presAssocID="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" presName="childText" presStyleLbl="conFgAcc1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C98CE616-FBF5-4509-9AD1-369021D1DCF5}" type="pres">
+      <dgm:prSet presAssocID="{2332F18A-C584-4CB9-A9E8-0D1A39B8048A}" presName="spaceBetweenRectangles" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F04C98CE-6F80-4219-A36C-0D0BFDC0837A}" type="pres">
+      <dgm:prSet presAssocID="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" presName="parentLin" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E5B7AC5D-6537-496F-8487-824655CD2B65}" type="pres">
+      <dgm:prSet presAssocID="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" presName="parentLeftMargin" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{51576957-26B3-4A8F-A289-10C63E52D94D}" type="pres">
+      <dgm:prSet presAssocID="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" presName="parentText" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{37CA2012-3B4E-46AD-A536-361EE4E67631}" type="pres">
+      <dgm:prSet presAssocID="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" presName="negativeSpace" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DEFE960A-6080-4467-A9F4-C6BB37879F76}" type="pres">
+      <dgm:prSet presAssocID="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" presName="childText" presStyleLbl="conFgAcc1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1AECAF29-ADB6-4E0C-AF36-AB5C2F45E126}" type="pres">
+      <dgm:prSet presAssocID="{F4822491-B94D-4A45-A309-D16A366CC8CC}" presName="spaceBetweenRectangles" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{142C6B77-2A0C-4542-A9F4-FD14504103DD}" type="pres">
+      <dgm:prSet presAssocID="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" presName="parentLin" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{489CC188-5067-4A1A-9C8D-2AB7CCE120B6}" type="pres">
+      <dgm:prSet presAssocID="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" presName="parentLeftMargin" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CC60D1D3-DDDB-4FC5-A1C3-E4653E704C8D}" type="pres">
+      <dgm:prSet presAssocID="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" presName="parentText" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0EDFD429-6875-419B-82AC-4E07949083DD}" type="pres">
+      <dgm:prSet presAssocID="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" presName="negativeSpace" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1AE69BEB-D9A2-4DCA-B149-3C1847A9F12E}" type="pres">
+      <dgm:prSet presAssocID="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" presName="childText" presStyleLbl="conFgAcc1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D101C46-5EA2-46DD-81E1-4A6D57BA54F4}" type="pres">
+      <dgm:prSet presAssocID="{7378DF53-49ED-4F8C-B206-306A7A9AF7EA}" presName="spaceBetweenRectangles" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB721BEB-16A4-4212-BBCC-7D992E2AE8E8}" type="pres">
+      <dgm:prSet presAssocID="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" presName="parentLin" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{35180499-7C95-4CEB-A91A-8EE97A92197C}" type="pres">
+      <dgm:prSet presAssocID="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" presName="parentLeftMargin" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{794585D4-3C8E-4881-A6F1-D47C30C9358C}" type="pres">
+      <dgm:prSet presAssocID="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" presName="parentText" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5886964B-DB46-4179-9F10-574EF2A6695C}" type="pres">
+      <dgm:prSet presAssocID="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" presName="negativeSpace" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74A5C23B-4E41-4DCE-ACF4-92ECBD7466D2}" type="pres">
+      <dgm:prSet presAssocID="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" presName="childText" presStyleLbl="conFgAcc1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{359E0D01-11C9-487E-8B80-DAA9336C3FED}" srcId="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" destId="{9B821602-82D1-4EED-96D8-077A3BCF7AA4}" srcOrd="1" destOrd="0" parTransId="{2BFD253A-BA9A-4CB4-9351-88B4B0AE9435}" sibTransId="{69949592-1C29-45C2-B11F-A67C2B3E1F37}"/>
+    <dgm:cxn modelId="{6BBA2902-8267-4554-9E4D-10625CBD99C8}" type="presOf" srcId="{2BAE9395-E215-4A3D-8E8A-0C33A6E76673}" destId="{74A5C23B-4E41-4DCE-ACF4-92ECBD7466D2}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{E204830B-95A6-4A8A-864D-8D51CEFAAD64}" srcId="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" destId="{D8F0967D-EEAC-4591-A999-7A2C9CE2272E}" srcOrd="0" destOrd="0" parTransId="{1FC37AC3-2223-45FD-8A43-0494821D6EC2}" sibTransId="{0BF713DB-EE8B-42E8-8553-09AE31447A42}"/>
+    <dgm:cxn modelId="{29A2590E-2BB0-4D28-AA8E-48530D001DD8}" type="presOf" srcId="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" destId="{794585D4-3C8E-4881-A6F1-D47C30C9358C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{72C06640-57BA-49F1-82C3-CB56205B6745}" type="presOf" srcId="{B3D02B3D-C776-42B4-81CD-38E75222EE43}" destId="{74A5C23B-4E41-4DCE-ACF4-92ECBD7466D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{B99E0C46-F630-4BD6-9BA2-81CC384434F9}" type="presOf" srcId="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" destId="{CC60D1D3-DDDB-4FC5-A1C3-E4653E704C8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{D7A61569-5F4F-46E2-B89A-2A2BF4129BD8}" srcId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" destId="{92DF18F5-4CA0-4807-880D-B568308E8ACF}" srcOrd="1" destOrd="0" parTransId="{06E56736-7C38-4CA2-BF42-2CC6F828A816}" sibTransId="{17A6849B-E8FE-4C4B-B2EF-95E6188628E3}"/>
+    <dgm:cxn modelId="{AE6CBF6B-1ED0-4084-A7DA-E6111AFAB4FC}" type="presOf" srcId="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" destId="{51576957-26B3-4A8F-A289-10C63E52D94D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{E740A26D-DA9C-4A6B-B4B7-35D0A90DAD97}" type="presOf" srcId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" destId="{8ACF2192-3E7C-416E-B94E-0E765FD18E52}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{59B9C672-2C84-4545-BE16-82685FCC2E17}" type="presOf" srcId="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" destId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{54BE5A53-5B3E-4D02-978D-60FCB493383A}" srcId="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" destId="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" srcOrd="1" destOrd="0" parTransId="{B373B63E-259A-4168-8148-6DAD083D915D}" sibTransId="{F4822491-B94D-4A45-A309-D16A366CC8CC}"/>
+    <dgm:cxn modelId="{9DE67574-E1E9-4342-B0CE-2BDBC9B2B424}" type="presOf" srcId="{BA3BE682-957D-448E-9CA9-55C875611D47}" destId="{272DFBB0-BEF8-473E-B443-7AAF458B7F54}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{1AA97E75-4D17-4EAB-8816-8A9A1AA51FD8}" type="presOf" srcId="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" destId="{E5B7AC5D-6537-496F-8487-824655CD2B65}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{B105677D-BD96-42B7-8580-A1B374E53CDB}" type="presOf" srcId="{28E1F358-8503-4739-8A79-ED7F8DDB0679}" destId="{272DFBB0-BEF8-473E-B443-7AAF458B7F54}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{BEFC467F-6EAF-44FC-B68E-E72D32FAECC8}" srcId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" destId="{BA3BE682-957D-448E-9CA9-55C875611D47}" srcOrd="2" destOrd="0" parTransId="{5B3DC55D-5B95-495C-A8F7-EC5DCD46BDA1}" sibTransId="{6D45AC31-CC92-49C6-89E8-E6F79AD5A21E}"/>
+    <dgm:cxn modelId="{DA37FE96-83B5-4712-92DA-29ABF14FE9F5}" srcId="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" destId="{B3D02B3D-C776-42B4-81CD-38E75222EE43}" srcOrd="0" destOrd="0" parTransId="{27E13887-7738-41D7-8B15-7FA1658DBBDD}" sibTransId="{6FBB87F1-C54D-443D-9F16-831A1B232899}"/>
+    <dgm:cxn modelId="{53A95999-CC56-42BC-9005-528ACAB00204}" type="presOf" srcId="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" destId="{489CC188-5067-4A1A-9C8D-2AB7CCE120B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{54D82D9A-C993-42B9-9E65-3546000D6A3D}" type="presOf" srcId="{92DF18F5-4CA0-4807-880D-B568308E8ACF}" destId="{272DFBB0-BEF8-473E-B443-7AAF458B7F54}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{63BC9F9E-3BE3-4D79-BF7C-B131A8260368}" srcId="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" destId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" srcOrd="0" destOrd="0" parTransId="{C3C23DB4-165A-4349-A9AA-0CDA05F9025A}" sibTransId="{2332F18A-C584-4CB9-A9E8-0D1A39B8048A}"/>
+    <dgm:cxn modelId="{65126CA5-C1CD-4F68-BA6F-78E188456218}" type="presOf" srcId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" destId="{8D5EFB2E-D9EA-4398-83ED-5E27BB2AE8F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{841FF9AD-1305-443F-8EAF-4DD7F088FBC3}" srcId="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" destId="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" srcOrd="2" destOrd="0" parTransId="{2729C385-34EE-48C0-93B5-24FC38AACAD4}" sibTransId="{7378DF53-49ED-4F8C-B206-306A7A9AF7EA}"/>
+    <dgm:cxn modelId="{DB1A6BAF-5E40-491D-BB68-65005C55399A}" srcId="{047DCE5E-9337-4F77-AFA7-E11452BE469D}" destId="{28E1F358-8503-4739-8A79-ED7F8DDB0679}" srcOrd="0" destOrd="0" parTransId="{46B00DB1-D1E0-4075-8239-BD41981F9F30}" sibTransId="{BFE9211A-4A14-4439-8B70-28B9566F1C9B}"/>
+    <dgm:cxn modelId="{904854B0-9A08-4728-ACAC-F6102F4C20FE}" type="presOf" srcId="{89968F49-A678-44D8-A741-CCE3004F1CB0}" destId="{DEFE960A-6080-4467-A9F4-C6BB37879F76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{D61E9EB1-EECF-4DE3-980D-54D49A2759A4}" srcId="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" destId="{2BAE9395-E215-4A3D-8E8A-0C33A6E76673}" srcOrd="1" destOrd="0" parTransId="{0BA13112-A37B-4524-BA8C-0A7DDA4FF725}" sibTransId="{191D6E86-6EC4-4F72-B44D-B7B9D5BB7887}"/>
+    <dgm:cxn modelId="{0E73B5B5-5DAB-4BE2-AF33-6E4AAE99E8BB}" srcId="{10A52BED-65EC-433A-9DF7-4891D6ED3062}" destId="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" srcOrd="3" destOrd="0" parTransId="{9887E77E-9885-45BA-B56D-41BEF4476E8B}" sibTransId="{F531F6E2-9871-4370-8B4D-070DFF946A8F}"/>
+    <dgm:cxn modelId="{761C7EB7-0404-4B38-9D9E-B0524A0415CD}" srcId="{2DDEA30F-0C6B-4321-815D-4363FCAEE48A}" destId="{89968F49-A678-44D8-A741-CCE3004F1CB0}" srcOrd="0" destOrd="0" parTransId="{628B83B0-C83B-488D-BE2C-E84C62480FB3}" sibTransId="{2615C6CB-DB60-439D-9C79-DD80FC34D327}"/>
+    <dgm:cxn modelId="{3E7275C6-22E6-4E38-97BD-53ACE2576487}" type="presOf" srcId="{9B821602-82D1-4EED-96D8-077A3BCF7AA4}" destId="{DEFE960A-6080-4467-A9F4-C6BB37879F76}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{668FF2CA-A3A1-48AE-892E-DD2D1E58C4C1}" type="presOf" srcId="{ED257456-A073-410B-B6F4-6F2C7CF70188}" destId="{1AE69BEB-D9A2-4DCA-B149-3C1847A9F12E}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{DB6AE3CC-BFB6-46DF-8535-B1C0828310C0}" srcId="{946573B2-7AD3-4EC8-9BF4-9C128324B75D}" destId="{ED257456-A073-410B-B6F4-6F2C7CF70188}" srcOrd="1" destOrd="0" parTransId="{4522D219-E2F1-43F9-87AB-1EFB1AFD5DA6}" sibTransId="{1DF35C7E-09E5-4CDA-A348-F0C6DEC9C599}"/>
+    <dgm:cxn modelId="{3533B4DB-6785-471A-B830-C7C72DECA8A4}" type="presOf" srcId="{D8F0967D-EEAC-4591-A999-7A2C9CE2272E}" destId="{1AE69BEB-D9A2-4DCA-B149-3C1847A9F12E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{63F1A8E3-C242-40AF-A1F7-2792A4F775FF}" type="presOf" srcId="{B64976DE-FFA0-4E5C-B683-A27D35C7809A}" destId="{35180499-7C95-4CEB-A91A-8EE97A92197C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{91AF53BC-7BE8-4CE9-8D82-8C262825C2C6}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{45747FDE-CFBF-4BC1-AE15-2C572365EC68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{D0A82DF9-C5DE-4EC9-A5F0-9260D4F9EE03}" type="presParOf" srcId="{45747FDE-CFBF-4BC1-AE15-2C572365EC68}" destId="{8D5EFB2E-D9EA-4398-83ED-5E27BB2AE8F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{07D3C7B8-2B8B-44AA-B047-90C9428A9293}" type="presParOf" srcId="{45747FDE-CFBF-4BC1-AE15-2C572365EC68}" destId="{8ACF2192-3E7C-416E-B94E-0E765FD18E52}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{21776047-6A62-4CA4-BD8E-18263E6DF23D}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{687AA6E6-DABF-44E8-AF59-507D32EB5935}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{8E17341B-CE47-46DA-812F-D0A53B1B8BDF}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{272DFBB0-BEF8-473E-B443-7AAF458B7F54}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{AA4888DD-38CA-4CC2-8CC9-E4E3C377237B}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{C98CE616-FBF5-4509-9AD1-369021D1DCF5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{37BC4433-AC68-4D21-BFF7-F3D8779A836B}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{F04C98CE-6F80-4219-A36C-0D0BFDC0837A}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{BE4A7514-840B-4E79-AA22-251483D8B0C4}" type="presParOf" srcId="{F04C98CE-6F80-4219-A36C-0D0BFDC0837A}" destId="{E5B7AC5D-6537-496F-8487-824655CD2B65}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{4B2FE5BA-D645-400E-9930-53EED90116BE}" type="presParOf" srcId="{F04C98CE-6F80-4219-A36C-0D0BFDC0837A}" destId="{51576957-26B3-4A8F-A289-10C63E52D94D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{C86E1577-F25C-47E2-AAC3-D3395F4B9581}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{37CA2012-3B4E-46AD-A536-361EE4E67631}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{957CEFF5-A6D2-4A8E-8EAB-0028E386D94F}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{DEFE960A-6080-4467-A9F4-C6BB37879F76}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{F50AB682-98EB-49CE-8205-DBFE8EF1AE5F}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{1AECAF29-ADB6-4E0C-AF36-AB5C2F45E126}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{A501EF36-24DB-4D7F-BF11-0C0D85C00DA6}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{142C6B77-2A0C-4542-A9F4-FD14504103DD}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{A9518C85-A5B6-42B0-83C4-6471798F7A42}" type="presParOf" srcId="{142C6B77-2A0C-4542-A9F4-FD14504103DD}" destId="{489CC188-5067-4A1A-9C8D-2AB7CCE120B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{CDE71C79-746B-4086-9046-883DBBB68F19}" type="presParOf" srcId="{142C6B77-2A0C-4542-A9F4-FD14504103DD}" destId="{CC60D1D3-DDDB-4FC5-A1C3-E4653E704C8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{9BD11087-19C9-4DCC-806D-F07981B77F40}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{0EDFD429-6875-419B-82AC-4E07949083DD}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{B894949E-8497-45ED-A6D6-85E9639A66C2}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{1AE69BEB-D9A2-4DCA-B149-3C1847A9F12E}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{E4965DC5-BED6-4A64-B125-BA4244CCBF78}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{3D101C46-5EA2-46DD-81E1-4A6D57BA54F4}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{32ABFB20-FC72-4B47-B8A8-A775795942B7}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{DB721BEB-16A4-4212-BBCC-7D992E2AE8E8}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{A3A12C53-5879-442C-8033-61EA4FC83985}" type="presParOf" srcId="{DB721BEB-16A4-4212-BBCC-7D992E2AE8E8}" destId="{35180499-7C95-4CEB-A91A-8EE97A92197C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{B2A3CAC7-A335-44E9-891C-CE68E772CA8B}" type="presParOf" srcId="{DB721BEB-16A4-4212-BBCC-7D992E2AE8E8}" destId="{794585D4-3C8E-4881-A6F1-D47C30C9358C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{BBF397C5-C621-4E5E-B88D-59C6BEFE5047}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{5886964B-DB46-4179-9F10-574EF2A6695C}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+    <dgm:cxn modelId="{34BE7B4B-FE3F-4CB3-BC3C-B6D1F03C4C4A}" type="presParOf" srcId="{B8CE064F-DA6E-4506-ABD9-C3052E0A143C}" destId="{74A5C23B-4E41-4DCE-ACF4-92ECBD7466D2}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/list1"/>
+  </dgm:cxnLst>
+  <dgm:bg>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </dgm:bg>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{272DFBB0-BEF8-473E-B443-7AAF458B7F54}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="187019"/>
+          <a:ext cx="4572000" cy="604800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="354838" tIns="166624" rIns="354838" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Junio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Julio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Octubre</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="187019"/>
+        <a:ext cx="4572000" cy="604800"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8ACF2192-3E7C-416E-B94E-0E765FD18E52}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="68939"/>
+          <a:ext cx="3200400" cy="236160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="120968" tIns="0" rIns="120968" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Familia</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="240128" y="80467"/>
+        <a:ext cx="3177344" cy="213104"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DEFE960A-6080-4467-A9F4-C6BB37879F76}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="953099"/>
+          <a:ext cx="4572000" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="354838" tIns="166624" rIns="354838" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Abril</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Diciembre</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="953099"/>
+        <a:ext cx="4572000" cy="466200"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{51576957-26B3-4A8F-A289-10C63E52D94D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="835019"/>
+          <a:ext cx="3200400" cy="236160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="120968" tIns="0" rIns="120968" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Empresas</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="240128" y="846547"/>
+        <a:ext cx="3177344" cy="213104"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1AE69BEB-D9A2-4DCA-B149-3C1847A9F12E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1580580"/>
+          <a:ext cx="4572000" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="354838" tIns="166624" rIns="354838" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Enero</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Marzo</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="1580580"/>
+        <a:ext cx="4572000" cy="466200"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CC60D1D3-DDDB-4FC5-A1C3-E4653E704C8D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1462500"/>
+          <a:ext cx="3200400" cy="236160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="120968" tIns="0" rIns="120968" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Fiestas Infantiles</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="240128" y="1474028"/>
+        <a:ext cx="3177344" cy="213104"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{74A5C23B-4E41-4DCE-ACF4-92ECBD7466D2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2208060"/>
+          <a:ext cx="4572000" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="354838" tIns="166624" rIns="354838" bIns="56896" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Marzo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Abril</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="2208060"/>
+        <a:ext cx="4572000" cy="466200"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{794585D4-3C8E-4881-A6F1-D47C30C9358C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2089980"/>
+          <a:ext cx="3200400" cy="236160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="120968" tIns="0" rIns="120968" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800" kern="1200"/>
+            <a:t>Colegios</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="240128" y="2101508"/>
+        <a:ext cx="3177344" cy="213104"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/list1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="4000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="linear">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="vertAlign" val="mid"/>
+          <dgm:param type="horzAlign" val="l"/>
+          <dgm:param type="nodeHorzAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="vertAlign" val="mid"/>
+          <dgm:param type="horzAlign" val="r"/>
+          <dgm:param type="nodeHorzAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="parentLin" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="parentLin" val="INF"/>
+      <dgm:constr type="w" for="des" forName="parentLeftMargin" refType="w" fact="0.05"/>
+      <dgm:constr type="w" for="des" forName="parentText" refType="w" fact="0.7"/>
+      <dgm:constr type="h" for="des" forName="parentText" refType="primFontSz" refFor="des" refForName="parentText" fact="0.82"/>
+      <dgm:constr type="h" for="ch" forName="negativeSpace" refType="primFontSz" refFor="des" refForName="parentText" fact="-0.41"/>
+      <dgm:constr type="h" for="ch" forName="negativeSpace" refType="h" refFor="des" refForName="parentText" op="lte" fact="-0.82"/>
+      <dgm:constr type="h" for="ch" forName="negativeSpace" refType="h" refFor="des" refForName="parentText" op="gte" fact="-0.82"/>
+      <dgm:constr type="w" for="ch" forName="childText" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="childText" refType="primFontSz" refFor="des" refForName="parentText" fact="0.7"/>
+      <dgm:constr type="primFontSz" for="des" forName="parentText" val="65"/>
+      <dgm:constr type="primFontSz" for="ch" forName="childText" refType="primFontSz" refFor="des" refForName="parentText"/>
+      <dgm:constr type="tMarg" for="ch" forName="childText" refType="primFontSz" refFor="des" refForName="parentText" fact="1.64"/>
+      <dgm:constr type="tMarg" for="ch" forName="childText" refType="h" refFor="des" refForName="parentText" op="lte" fact="3.28"/>
+      <dgm:constr type="tMarg" for="ch" forName="childText" refType="h" refFor="des" refForName="parentText" op="gte" fact="3.28"/>
+      <dgm:constr type="lMarg" for="ch" forName="childText" refType="w" fact="0.22"/>
+      <dgm:constr type="rMarg" for="ch" forName="childText" refType="lMarg" refFor="ch" refForName="childText"/>
+      <dgm:constr type="lMarg" for="des" forName="parentText" refType="w" fact="0.075"/>
+      <dgm:constr type="rMarg" for="des" forName="parentText" refType="lMarg" refFor="des" refForName="parentText"/>
+      <dgm:constr type="h" for="ch" forName="spaceBetweenRectangles" refType="primFontSz" refFor="des" refForName="parentText" fact="0.15"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="primFontSz" for="des" forName="parentText" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name3" axis="ch" ptType="node">
+      <dgm:layoutNode name="parentLin">
+        <dgm:choose name="Name4">
+          <dgm:if name="Name5" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="lin">
+              <dgm:param type="linDir" val="fromL"/>
+              <dgm:param type="horzAlign" val="l"/>
+              <dgm:param type="nodeHorzAlign" val="l"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name6">
+            <dgm:alg type="lin">
+              <dgm:param type="linDir" val="fromR"/>
+              <dgm:param type="horzAlign" val="r"/>
+              <dgm:param type="nodeHorzAlign" val="r"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+        <dgm:layoutNode name="parentLeftMargin">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="h"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="parentText" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name7">
+            <dgm:if name="Name8" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name9">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="tMarg"/>
+            <dgm:constr type="bMarg"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="negativeSpace">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="childText" styleLbl="conFgAcc1">
+        <dgm:varLst>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx">
+          <dgm:param type="stBulletLvl" val="1"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="-2">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf axis="des" ptType="node"/>
+        <dgm:constrLst>
+          <dgm:constr type="secFontSz" refType="primFontSz"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name10" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="spaceBetweenRectangles">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d5">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="3D" pri="11500"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="isometricOffAxis2Left" zoom="95000"/>
+    <a:lightRig rig="flat" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-381000" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-52400" extrusionH="181000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="dk1">
+          <a:tint val="20000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-381000" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="dk1">
+          <a:tint val="20000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="52400" extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="52400" extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="60000" prstMaterial="flat">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="60000" prstMaterial="flat">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="12700" prstMaterial="flat">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="flat">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-63500" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="dk1">
+          <a:tint val="20000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1">
+          <a:tint val="50000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1">
+          <a:tint val="50000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376239</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Diana con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26FE23C-8809-40B6-BD78-AEC8A6AA30F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4581527" y="166687"/>
+          <a:ext cx="338136" cy="338136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="16200000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flecha: hacia la izquierda 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB469653-CE59-4259-A28E-98FF03D5B585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7672389" y="809625"/>
+          <a:ext cx="1447799" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Mayor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> inversión</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48592</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>814256</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB119CBB-920D-4527-88B0-E23E9B7ABED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7582867" y="0"/>
+          <a:ext cx="765664" cy="595313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo: esquinas redondeadas 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A18878-E483-4C42-AC59-B8D2F6B2E30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="1004888"/>
+          <a:ext cx="1762125" cy="195262"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540543</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagrama 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A14E36-0DD2-46B4-B6B9-A5E341924AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,7 +4386,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -598,51 +4399,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>43101</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>43132</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>43160</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>43191</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>43221</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>43252</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -663,17 +4464,17 @@
       <c r="G5" s="3">
         <v>700</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>SUM(B5:G5)</f>
         <v>4200</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>H5/$H$14</f>
         <v>3.8595846351773572E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -694,17 +4495,17 @@
       <c r="G6" s="3">
         <v>6000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" ref="H6:H14" si="0">SUM(B6:G6)</f>
         <v>29700</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>H6/$H$14</f>
         <v>0.2729277706303988</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -725,17 +4526,17 @@
       <c r="G7" s="3">
         <v>4300</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>25800</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>H7/$H$14</f>
         <v>0.23708877044660909</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -756,17 +4557,17 @@
       <c r="G8" s="3">
         <v>250</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f>H8/$H$14</f>
         <v>1.2130123139128837E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -787,17 +4588,17 @@
       <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>15600</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f t="shared" ref="I9:I13" si="1">H9/$H$14</f>
         <v>0.14335600073515897</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
@@ -818,17 +4619,17 @@
       <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f>H10/$H$14</f>
         <v>6.8921154199595658E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
@@ -849,17 +4650,17 @@
       <c r="G11" s="3">
         <v>1000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
         <v>5.5136923359676529E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3">
@@ -880,17 +4681,17 @@
       <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f>H12/$H$14</f>
         <v>8.9138026098143724E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3">
@@ -911,44 +4712,44 @@
       <c r="G13" s="3">
         <v>1500</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="1"/>
         <v>8.27053850395148E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>SUM(B5:B13)</f>
         <v>17400</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" ref="C14:G14" si="2">SUM(C5:C13)</f>
         <v>16500</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="2"/>
         <v>20250</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>17420</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>19750</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>108820</v>
       </c>
@@ -1009,5 +4810,21 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9F6EF5-89D9-4830-9357-F220AA871AA0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/6. Funciones-en-Excel-MIN-MO-M-XIMO.PROMEDIO-y-CONTAR.xlsx.xlsx
+++ b/6. Funciones-en-Excel-MIN-MO-M-XIMO.PROMEDIO-y-CONTAR.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\Downloads\Materiales-Para-Descargar\Curso_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB5798-D149-462B-BB9E-8C96F458D4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55CD9F6-8D8C-478B-9A90-20BE7E4D545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{387765B8-A6D8-4B9F-8E14-1C810584CD88}"/>
   </bookViews>
@@ -274,6 +274,4196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Publicidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Personal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Papeleria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eventos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diseños</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contabilidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F81A-41FB-AD35-11904B5C15BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE" sz="2800"/>
+              <a:t>Parque</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="2800" baseline="0"/>
+              <a:t> Infantil</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE" sz="2800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21CB-4C7B-A182-736EE111D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Publicidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21CB-4C7B-A182-736EE111D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Personal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent6">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21CB-4C7B-A182-736EE111D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presupuesto1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Papeleria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presupuesto1!$E$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-21CB-4C7B-A182-736EE111D413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="724943807"/>
+        <c:axId val="724944223"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="724943807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724944223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="724944223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Gastos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-PE" baseline="0"/>
+                  <a:t> e Inversión</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$$-409]#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724943807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4042,6 +8232,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>92867</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>319086</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D06CDA-F723-474D-AC49-633DE7B16A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4049,16 +8275,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540543</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>102393</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>540543</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4078,6 +8304,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502443</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210BDE39-801B-4691-BA16-C06ABDD5DA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4386,7 +8648,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4819,7 +9081,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
